--- a/Testcases.xlsx
+++ b/Testcases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\Training\TestForJobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -141,13 +141,6 @@
 3. The Budget request is sent to the Board of directors</t>
   </si>
   <si>
-    <t>1. PIC complet edit request
-2. Send the request is invalid</t>
-  </si>
-  <si>
-    <t>2. The request is resent to the PIC for completion</t>
-  </si>
-  <si>
     <t>TC_007</t>
   </si>
   <si>
@@ -227,13 +220,22 @@
   </si>
   <si>
     <t>Verify PIC send the request to the Head of department successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. PIC complet edit request
+2. Send the request is invalid
+2.1 Invalid type
+2.2 Invalid size </t>
+  </si>
+  <si>
+    <t>2. Can not resend  to Account department</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,13 +246,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -282,30 +277,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -347,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -370,101 +354,66 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -757,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -774,445 +723,445 @@
     <col min="15" max="15" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="45">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="2:15" ht="30">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:15" ht="15.75">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="2:15" ht="30">
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="2:15" ht="45">
+      <c r="B4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="2:15" ht="45">
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="30">
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" spans="2:15" ht="30">
+      <c r="B7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="2:15" ht="60">
+      <c r="B8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="12"/>
-    </row>
-    <row r="3" spans="2:15" ht="30">
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="H8" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" spans="2:15" ht="60">
+      <c r="B9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D9" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="2:15" ht="45">
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="E9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="2:15" ht="60">
+      <c r="B10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D10" s="8">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="2:15" ht="45">
-      <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="E10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+    </row>
+    <row r="11" spans="2:15" ht="60">
+      <c r="B11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D11" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="E11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+    </row>
+    <row r="12" spans="2:15" ht="30">
+      <c r="B12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="30">
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="H12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+    </row>
+    <row r="13" spans="2:15" ht="30">
+      <c r="B13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="2:15" ht="30">
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="E13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+    </row>
+    <row r="14" spans="2:15" ht="30">
+      <c r="B14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" spans="2:15" ht="30">
+      <c r="B15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="2:15" ht="30">
-      <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-    </row>
-    <row r="9" spans="2:15" ht="60">
-      <c r="B9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-    </row>
-    <row r="10" spans="2:15" ht="60">
-      <c r="B10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-    </row>
-    <row r="11" spans="2:15" ht="60">
-      <c r="B11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-    </row>
-    <row r="12" spans="2:15" ht="30">
-      <c r="B12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="14" t="s">
+      <c r="E15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-    </row>
-    <row r="13" spans="2:15" ht="30">
-      <c r="B13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="2:15" ht="30">
-      <c r="B14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-    </row>
-    <row r="15" spans="2:15" ht="30">
-      <c r="B15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="H15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
